--- a/data/134/DEUSTATIS/National accounts - saving of households years.xlsx
+++ b/data/134/DEUSTATIS/National accounts - saving of households years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>National accounts - Disposable income, saving of households:
 Germany, years</t>
@@ -120,6 +120,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Compensation of employees (national concept)</t>
   </si>
   <si>
@@ -183,7 +186,7 @@
     <t>Including non-profit institutions serving households.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:36:50</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:36:50</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -809,6 +812,14 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -946,6 +957,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1115,6 +1130,7 @@
     <col min="30" max="30" width="9.03125" customWidth="true"/>
     <col min="31" max="31" width="9.03125" customWidth="true"/>
     <col min="32" max="32" width="9.03125" customWidth="true"/>
+    <col min="33" max="33" width="9.03125" customWidth="true"/>
     <col min="3" max="3" width="9.03125" customWidth="true"/>
     <col min="4" max="4" width="9.03125" customWidth="true"/>
     <col min="5" max="5" width="9.03125" customWidth="true"/>
@@ -1138,109 +1154,112 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="86">
+      <c r="A4" t="s" s="88">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="87">
+      <c r="B4" t="s" s="89">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="88">
+      <c r="C4" t="s" s="90">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="89">
+      <c r="D4" t="s" s="91">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="90">
+      <c r="E4" t="s" s="92">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="91">
+      <c r="F4" t="s" s="93">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="92">
+      <c r="G4" t="s" s="94">
         <v>9</v>
       </c>
-      <c r="H4" t="s" s="93">
+      <c r="H4" t="s" s="95">
         <v>10</v>
       </c>
-      <c r="I4" t="s" s="94">
+      <c r="I4" t="s" s="96">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="95">
+      <c r="J4" t="s" s="97">
         <v>12</v>
       </c>
-      <c r="K4" t="s" s="96">
+      <c r="K4" t="s" s="98">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="97">
+      <c r="L4" t="s" s="99">
         <v>14</v>
       </c>
-      <c r="M4" t="s" s="98">
+      <c r="M4" t="s" s="100">
         <v>15</v>
       </c>
-      <c r="N4" t="s" s="99">
+      <c r="N4" t="s" s="101">
         <v>16</v>
       </c>
-      <c r="O4" t="s" s="100">
+      <c r="O4" t="s" s="102">
         <v>17</v>
       </c>
-      <c r="P4" t="s" s="101">
+      <c r="P4" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="Q4" t="s" s="102">
+      <c r="Q4" t="s" s="104">
         <v>19</v>
       </c>
-      <c r="R4" t="s" s="103">
+      <c r="R4" t="s" s="105">
         <v>20</v>
       </c>
-      <c r="S4" t="s" s="104">
+      <c r="S4" t="s" s="106">
         <v>21</v>
       </c>
-      <c r="T4" t="s" s="105">
+      <c r="T4" t="s" s="107">
         <v>22</v>
       </c>
-      <c r="U4" t="s" s="106">
+      <c r="U4" t="s" s="108">
         <v>23</v>
       </c>
-      <c r="V4" t="s" s="107">
+      <c r="V4" t="s" s="109">
         <v>24</v>
       </c>
-      <c r="W4" t="s" s="108">
+      <c r="W4" t="s" s="110">
         <v>25</v>
       </c>
-      <c r="X4" t="s" s="109">
+      <c r="X4" t="s" s="111">
         <v>26</v>
       </c>
-      <c r="Y4" t="s" s="110">
+      <c r="Y4" t="s" s="112">
         <v>27</v>
       </c>
-      <c r="Z4" t="s" s="111">
+      <c r="Z4" t="s" s="113">
         <v>28</v>
       </c>
-      <c r="AA4" t="s" s="112">
+      <c r="AA4" t="s" s="114">
         <v>29</v>
       </c>
-      <c r="AB4" t="s" s="113">
+      <c r="AB4" t="s" s="115">
         <v>30</v>
       </c>
-      <c r="AC4" t="s" s="114">
+      <c r="AC4" t="s" s="116">
         <v>31</v>
       </c>
-      <c r="AD4" t="s" s="115">
+      <c r="AD4" t="s" s="117">
         <v>32</v>
       </c>
-      <c r="AE4" t="s" s="116">
+      <c r="AE4" t="s" s="118">
         <v>33</v>
       </c>
-      <c r="AF4" t="s" s="117">
+      <c r="AF4" t="s" s="119">
         <v>34</v>
+      </c>
+      <c r="AG4" t="s" s="120">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n" s="11">
         <v>855.811</v>
@@ -1331,14 +1350,17 @@
       </c>
       <c r="AF5" t="n" s="11">
         <v>1852.105</v>
+      </c>
+      <c r="AG5" t="n" s="11">
+        <v>1920.413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="14">
         <v>37</v>
-      </c>
-      <c r="B6" t="s" s="14">
-        <v>36</v>
       </c>
       <c r="C6" t="n" s="11">
         <v>152.49</v>
@@ -1429,14 +1451,17 @@
       </c>
       <c r="AF6" t="n" s="11">
         <v>338.048</v>
+      </c>
+      <c r="AG6" t="n" s="11">
+        <v>349.239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n" s="11">
         <v>703.321</v>
@@ -1527,14 +1552,17 @@
       </c>
       <c r="AF7" t="n" s="11">
         <v>1514.057</v>
+      </c>
+      <c r="AG7" t="n" s="11">
+        <v>1571.174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n" s="11">
         <v>210.546</v>
@@ -1625,14 +1653,17 @@
       </c>
       <c r="AF8" t="n" s="11">
         <v>492.719</v>
+      </c>
+      <c r="AG8" t="n" s="11">
+        <v>506.963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n" s="11">
         <v>492.775</v>
@@ -1723,14 +1754,17 @@
       </c>
       <c r="AF9" t="n" s="11">
         <v>1021.338</v>
+      </c>
+      <c r="AG9" t="n" s="11">
+        <v>1064.211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n" s="11">
         <v>258.384</v>
@@ -1821,14 +1855,17 @@
       </c>
       <c r="AF10" t="n" s="11">
         <v>659.076</v>
+      </c>
+      <c r="AG10" t="n" s="11">
+        <v>673.978</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n" s="11">
         <v>43.841</v>
@@ -1919,14 +1956,17 @@
       </c>
       <c r="AF11" t="n" s="11">
         <v>140.29</v>
+      </c>
+      <c r="AG11" t="n" s="11">
+        <v>142.457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n" s="11">
         <v>707.318</v>
@@ -2017,14 +2057,17 @@
       </c>
       <c r="AF12" t="n" s="11">
         <v>1540.124</v>
+      </c>
+      <c r="AG12" t="n" s="11">
+        <v>1595.732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n" s="11">
         <v>338.067</v>
@@ -2115,14 +2158,17 @@
       </c>
       <c r="AF13" t="n" s="11">
         <v>527.167</v>
+      </c>
+      <c r="AG13" t="n" s="11">
+        <v>528.751</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n" s="11">
         <v>-40.448</v>
@@ -2213,14 +2259,17 @@
       </c>
       <c r="AF14" t="n" s="11">
         <v>-92.071</v>
+      </c>
+      <c r="AG14" t="n" s="11">
+        <v>-111.219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n" s="11">
         <v>1004.937</v>
@@ -2311,14 +2360,17 @@
       </c>
       <c r="AF15" t="n" s="11">
         <v>1975.22</v>
+      </c>
+      <c r="AG15" t="n" s="11">
+        <v>2013.264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n" s="11">
         <v>1172.242</v>
@@ -2409,14 +2461,17 @@
       </c>
       <c r="AF16" t="n" s="11">
         <v>2447.377</v>
+      </c>
+      <c r="AG16" t="n" s="11">
+        <v>2529.548</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n" s="11">
         <v>15.575</v>
@@ -2507,14 +2562,17 @@
       </c>
       <c r="AF17" t="n" s="11">
         <v>59.853</v>
+      </c>
+      <c r="AG17" t="n" s="11">
+        <v>60.781</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n" s="11">
         <v>131.857</v>
@@ -2605,14 +2663,17 @@
       </c>
       <c r="AF18" t="n" s="11">
         <v>327.095</v>
+      </c>
+      <c r="AG18" t="n" s="11">
+        <v>311.059</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n" s="11">
         <v>1020.512</v>
@@ -2703,14 +2764,17 @@
       </c>
       <c r="AF19" t="n" s="11">
         <v>2035.073</v>
+      </c>
+      <c r="AG19" t="n" s="11">
+        <v>2074.045</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n" s="11">
         <v>12.9</v>
@@ -2801,37 +2865,40 @@
       </c>
       <c r="AF20" t="n" s="11">
         <v>16.1</v>
+      </c>
+      <c r="AG20" t="n" s="11">
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="13">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:36:53&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:36:54&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>